--- a/biology/Mycologie/Inonotus/Inonotus.xlsx
+++ b/biology/Mycologie/Inonotus/Inonotus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Inonotus est un genre de champignons (Fungi) basidiomycètes de la famille des Hymenochaetaceae. Il s'agit de champignons lignivores proches des Polypores, agents de la pourriture fibreuse des arbres, sur les conifères et les feuillus vivants ou morts. Son espèce-type est Inonotus cuticularis[2]. Inonotus est représenté sur l'ensemble du globe[1] et une de ses espèces les plus connues est sans doute Inonotus obliquus, le Chaga.
-Étymologiquement, le terme « Inonotus » est construit à partir du grec ancien ἴνος, inos, gérondif de ἴς, is (« fibre ») et de οὖς, ὠτός, oûs, ôtós (« oreille ») à cause de sa consistance fibreuse et de son aspect similaire à une oreille[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Inonotus est un genre de champignons (Fungi) basidiomycètes de la famille des Hymenochaetaceae. Il s'agit de champignons lignivores proches des Polypores, agents de la pourriture fibreuse des arbres, sur les conifères et les feuillus vivants ou morts. Son espèce-type est Inonotus cuticularis. Inonotus est représenté sur l'ensemble du globe et une de ses espèces les plus connues est sans doute Inonotus obliquus, le Chaga.
+Étymologiquement, le terme « Inonotus » est construit à partir du grec ancien ἴνος, inos, gérondif de ἴς, is (« fibre ») et de οὖς, ὠτός, oûs, ôtós (« oreille ») à cause de sa consistance fibreuse et de son aspect similaire à une oreille.
 </t>
         </is>
       </c>
@@ -512,10 +524,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genre produit des basidiomes annuels, résupinés, avec le bord supérieur plié, sessiles ou stipendiés, simples ou imbriqués. La surface supérieure, stérile, est jaune-brun, rougeâtre, lisse, tomenteuse, hérissée ou glabre. La surface inférieure, fertile, présente des pores bruns, petits et plus ou moins arrondis. La chair est molle et fibreuse à coriace-subéreuse, colorée de brun, noir au KOH. Elle présente parfois une masse mycélienne arrondie, distincte du reste de la chair et située au point d'attache du substrat[2].
-Microscopiquement, l'ensemble est constitué de filaments fertiles, les hyphes, soit hyalins et à parois minces, soit bruns avec des parois épaisses, sans boucles de conjugaison. Chez certaines espèces, des hyphes stériles consolidatrices très ramifiées sont également visibles. Des cystides, également considérées comme des soies, sont présentes ou absentes au sein de l'hyménium. Elles sont subulées ou ventriculaires, pointues, brunissant au KOH. D'autres cystides peuvent également orner les hyphes. Les basides sont clavées à largement ellipsoïdales, sans boucle de conjugaison. Les spores sont hyalines, jaunâtres ou brun rougeâtre, ellipsoïdes à ovoïdes, à subglobuleuses et lisses[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre produit des basidiomes annuels, résupinés, avec le bord supérieur plié, sessiles ou stipendiés, simples ou imbriqués. La surface supérieure, stérile, est jaune-brun, rougeâtre, lisse, tomenteuse, hérissée ou glabre. La surface inférieure, fertile, présente des pores bruns, petits et plus ou moins arrondis. La chair est molle et fibreuse à coriace-subéreuse, colorée de brun, noir au KOH. Elle présente parfois une masse mycélienne arrondie, distincte du reste de la chair et située au point d'attache du substrat.
+Microscopiquement, l'ensemble est constitué de filaments fertiles, les hyphes, soit hyalins et à parois minces, soit bruns avec des parois épaisses, sans boucles de conjugaison. Chez certaines espèces, des hyphes stériles consolidatrices très ramifiées sont également visibles. Des cystides, également considérées comme des soies, sont présentes ou absentes au sein de l'hyménium. Elles sont subulées ou ventriculaires, pointues, brunissant au KOH. D'autres cystides peuvent également orner les hyphes. Les basides sont clavées à largement ellipsoïdales, sans boucle de conjugaison. Les spores sont hyalines, jaunâtres ou brun rougeâtre, ellipsoïdes à ovoïdes, à subglobuleuses et lisses.
 	Quelques espèces du genre Inonotus
 			Inonotus arizonicus
 			Inonotus cuticularis
@@ -557,9 +571,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Durant les recherches phylogénétiques des années 2000, il est apparu que l'ordre des Hymenochaetales était incohérent, ses membres étant issus d'ancêtres différents. Le genre Inonotus est alors scindé en plusieurs subdivisions : Inonotus stricto sensu, Inocutis, Fuscoporia, Mensularia, Pseudoinonotus, Onnia et Inonotopsis. Dans son sens large, Inonotus est phylogénétiquement proche du genre Phellinus[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Durant les recherches phylogénétiques des années 2000, il est apparu que l'ordre des Hymenochaetales était incohérent, ses membres étant issus d'ancêtres différents. Le genre Inonotus est alors scindé en plusieurs subdivisions : Inonotus stricto sensu, Inocutis, Fuscoporia, Mensularia, Pseudoinonotus, Onnia et Inonotopsis. Dans son sens large, Inonotus est phylogénétiquement proche du genre Phellinus.
 	Quelques espèces anciennement du genre Inonotus
 			Inocutis dryophila
 			Inocutis tamaricis
@@ -594,9 +610,11 @@
           <t>Les espèces présentes en France</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Liste des espèces selon INPN      (6 décembre 2021)[4] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Liste des espèces selon INPN      (6 décembre 2021) :
 Inonotus andersonii (Ellis &amp; Everh.) Cerny
 Inonotus calcitratus (Berk. &amp; M.A.Curtis) Gomes-Silva &amp; Gibertoni, 2013
 Inonotus cuticularis (Bull. : Fr.) P.Karst.
@@ -649,9 +667,11 @@
           <t>Ensemble des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Liste des espèces selon GBIF       (6 décembre 2021)[1] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Liste des espèces selon GBIF       (6 décembre 2021) :
 Inonotus acutus B.K.Cui &amp; Y.C.Dai
 Inonotus adnatus Ryvarden
 Inonotus afromontanus Ryvarden
